--- a/excel_bao_cao_thang_theo_phoi.xlsx
+++ b/excel_bao_cao_thang_theo_phoi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="630" windowWidth="23655" windowHeight="9150"/>
+    <workbookView xWindow="150" yWindow="630" windowWidth="23655" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -1709,6 +1709,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="45" customHeight="1">
+      <c r="A1" s="5">
+        <f>+IF(A14=0,-2,A14)</f>
+        <v>-2</v>
+      </c>
       <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
